--- a/Azure_AWS_All_VM_Types_Comparison.xlsx
+++ b/Azure_AWS_All_VM_Types_Comparison.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sriva\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8784"/>
   </bookViews>
   <sheets>
     <sheet name="US Region Costing" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="127">
   <si>
     <t>Machine Standard</t>
   </si>
@@ -386,13 +391,22 @@
   </si>
   <si>
     <t>$2.4960/hour</t>
+  </si>
+  <si>
+    <t>i3.16xlarge</t>
+  </si>
+  <si>
+    <t>$4.9920/hour</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,6 +469,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -501,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,9 +555,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,6 +590,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,14 +766,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -795,7 +829,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -818,7 +852,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -841,7 +875,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -864,7 +898,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -887,7 +921,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -910,7 +944,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -933,7 +967,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -956,7 +990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -979,7 +1013,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1036,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1059,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1082,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1105,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1094,7 +1128,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1117,7 +1151,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1174,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1197,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1186,7 +1220,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1266,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1255,7 +1289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1278,7 +1312,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1299,6 +1333,29 @@
       </c>
       <c r="G24" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
